--- a/产品/项目案例/分享会安排.xlsx
+++ b/产品/项目案例/分享会安排.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham\Desktop\my-word\产品\项目案例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abraham\Desktop\Github\my-word\产品\项目案例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFCAF47-CE08-41EE-A561-9649EAEFA1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BCF71-2201-45BB-8F76-386D4686FA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>分享会</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,170 @@
   </si>
   <si>
     <t>两个对策可以一起运用，如果有超过3个人因为特殊原因（不是忘记或记错时间）无法到场，则调整时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他参会人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、分享人在会后要与负责人一块进行提炼总结，并保管好本次的分享内容，将主要细节和关键部分分享到共享群内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在负责人介绍和分享人单独分享时，需要遵守会议制度，该两个环节主要是倾听内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、在本次分享会中做好笔记，同时也需要温故分享人和负责人会后保存在共享群里面的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、在单个分享人分享完成后，积极与分享人进行互动，提问、回答问题，当然参会人员之间的互动也不可少。在每次时间控制在7分钟左右。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、单个分享人分享完毕后，在互动环节积极与其他人员讨论交流，提问、回答问题等，这些其实都需要会前有所准备，时间控制在7分钟左右。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享后后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3、讨论交流完毕后，进行提炼总结，为下一次会议安排好计划，时间控制在10分钟，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14：50-15：00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。     并用文档或其他形式分享本次会议的主要内容到共享群内（可在会议结束后操作）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、在分享人发布的时候控制后会议氛围（纪律问题），发表完成后带头进行讨论、互动。按照5分钟的分享和7分钟的互动，进行3-4组，约40分钟。时间范畴：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14：05-14：45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、介绍分享会流程，分享主题，分享会规则（第二次之后可以不用强调），时间尽量控制在五分钟，时间范畴：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14：00-14：05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、在负责人介绍完分享会的流程相关内容后，开始本次分享，务必清晰自己分享的内容、要点、以及意义。每次的分享人人数控制在3-5个，每次分享人分享不超过7分钟。会议适宜可使用PPT。约</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14：05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">开始 </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +290,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -195,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -222,6 +395,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,90 +683,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
